--- a/output/meral/2019/sheets/year_2019.xlsx
+++ b/output/meral/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>41.21612903225807</v>
+        <v>47.83872076465769</v>
       </c>
       <c r="C2" t="n">
-        <v>28.34516129032258</v>
+        <v>42.69322825018963</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>45.6</v>
+        <v>49.03823240648252</v>
       </c>
       <c r="C3" t="n">
-        <v>31.53214285714285</v>
+        <v>42.84945360575739</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>56.28064516129032</v>
+        <v>60.12658647668029</v>
       </c>
       <c r="C4" t="n">
-        <v>46.2258064516129</v>
+        <v>52.98463162630561</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>61.68333333333334</v>
+        <v>61.88884450674622</v>
       </c>
       <c r="C5" t="n">
-        <v>54.61666666666666</v>
+        <v>55.00360552553783</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62.62903225806452</v>
+        <v>62.75759902167144</v>
       </c>
       <c r="C6" t="n">
-        <v>53.06129032258065</v>
+        <v>55.5630243307995</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>61.98666666666666</v>
+        <v>62.29258445879716</v>
       </c>
       <c r="C7" t="n">
-        <v>53.44666666666667</v>
+        <v>55.45102771712202</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>56.96451612903228</v>
+        <v>57.15279153619778</v>
       </c>
       <c r="C8" t="n">
-        <v>51.41290322580645</v>
+        <v>52.4131354006521</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.56451612903226</v>
+        <v>56.24021685390954</v>
       </c>
       <c r="C9" t="n">
-        <v>41.90322580645161</v>
+        <v>50.98871683164556</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55.14666666666666</v>
+        <v>56.23015402662882</v>
       </c>
       <c r="C10" t="n">
-        <v>45.35666666666667</v>
+        <v>50.96154575913891</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>59.2258064516129</v>
+        <v>60.70953074104515</v>
       </c>
       <c r="C11" t="n">
-        <v>51.5741935483871</v>
+        <v>53.01686096598669</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.33666666666667</v>
+        <v>50.24560781517529</v>
       </c>
       <c r="C12" t="n">
-        <v>33.53</v>
+        <v>43.89430489714194</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.90645161290323</v>
+        <v>52.53013165733846</v>
       </c>
       <c r="C13" t="n">
-        <v>31.34838709677419</v>
+        <v>45.53224768819003</v>
       </c>
     </row>
   </sheetData>
